--- a/tests/testthat/fixtures/ex2/tables/distractors_summary.xlsx
+++ b/tests/testthat/fixtures/ex2/tables/distractors_summary.xlsx
@@ -580,10 +580,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>1172</v>
+        <v>1184</v>
       </c>
       <c r="D2" t="n">
-        <v>0.295</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="3">
@@ -594,10 +594,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>1121</v>
+        <v>1132</v>
       </c>
       <c r="D3" t="n">
-        <v>0.312</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="4">
@@ -608,10 +608,10 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="D4" t="n">
-        <v>0.367</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="5">
@@ -622,10 +622,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>947</v>
+        <v>962</v>
       </c>
       <c r="D5" t="n">
-        <v>0.353</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="6">
@@ -636,10 +636,10 @@
         <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="D6" t="n">
-        <v>0.421</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="7">
@@ -650,10 +650,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="D7" t="n">
-        <v>0.411</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="8">
@@ -664,10 +664,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="9">
@@ -678,10 +678,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D9" t="n">
-        <v>0.425</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="10">
@@ -692,10 +692,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D10" t="n">
-        <v>0.389</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="11">
@@ -706,10 +706,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D11" t="n">
-        <v>0.413</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="12">
@@ -720,10 +720,10 @@
         <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="D12" t="n">
-        <v>0.359</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="13">
@@ -734,10 +734,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="D13" t="n">
-        <v>0.289</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="14">
@@ -751,7 +751,7 @@
         <v>99</v>
       </c>
       <c r="D14" t="n">
-        <v>0.318</v>
+        <v>0.361</v>
       </c>
     </row>
   </sheetData>
@@ -790,10 +790,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.164</v>
+        <v>-0.159</v>
       </c>
     </row>
     <row r="3">
@@ -804,10 +804,10 @@
         <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.171</v>
+        <v>-0.152</v>
       </c>
     </row>
     <row r="4">
@@ -818,10 +818,10 @@
         <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.145</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="5">
@@ -832,10 +832,10 @@
         <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.18</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="6">
@@ -846,10 +846,10 @@
         <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.148</v>
+        <v>-0.161</v>
       </c>
     </row>
     <row r="7">
@@ -860,10 +860,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.171</v>
+        <v>-0.163</v>
       </c>
     </row>
     <row r="8">
@@ -874,10 +874,10 @@
         <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.183</v>
+        <v>-0.157</v>
       </c>
     </row>
     <row r="9">
@@ -888,10 +888,10 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.237</v>
+        <v>-0.235</v>
       </c>
     </row>
     <row r="10">
@@ -902,10 +902,10 @@
         <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.144</v>
+        <v>-0.163</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.197</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="12">
@@ -930,10 +930,10 @@
         <v>29</v>
       </c>
       <c r="C12" t="n">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.195</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="13">
@@ -944,10 +944,10 @@
         <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.141</v>
+        <v>-0.135</v>
       </c>
     </row>
     <row r="14">
@@ -958,10 +958,10 @@
         <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.185</v>
+        <v>-0.177</v>
       </c>
     </row>
     <row r="15">
@@ -972,10 +972,10 @@
         <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.24</v>
+        <v>-0.246</v>
       </c>
     </row>
     <row r="16">
@@ -986,10 +986,10 @@
         <v>26</v>
       </c>
       <c r="C16" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.198</v>
+        <v>-0.182</v>
       </c>
     </row>
     <row r="17">
@@ -1000,10 +1000,10 @@
         <v>22</v>
       </c>
       <c r="C17" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.162</v>
+        <v>-0.159</v>
       </c>
     </row>
     <row r="18">
@@ -1014,10 +1014,10 @@
         <v>29</v>
       </c>
       <c r="C18" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.196</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="19">
@@ -1031,7 +1031,7 @@
         <v>205</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.205</v>
+        <v>-0.189</v>
       </c>
     </row>
     <row r="20">
@@ -1042,10 +1042,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="n">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.159</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="21">
@@ -1056,10 +1056,10 @@
         <v>29</v>
       </c>
       <c r="C21" t="n">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.148</v>
+        <v>-0.122</v>
       </c>
     </row>
     <row r="22">
@@ -1070,10 +1070,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.241</v>
+        <v>-0.231</v>
       </c>
     </row>
     <row r="23">
@@ -1084,10 +1084,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.161</v>
+        <v>-0.155</v>
       </c>
     </row>
     <row r="24">
@@ -1098,10 +1098,10 @@
         <v>29</v>
       </c>
       <c r="C24" t="n">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.193</v>
+        <v>-0.157</v>
       </c>
     </row>
     <row r="25">
@@ -1112,10 +1112,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.196</v>
+        <v>-0.184</v>
       </c>
     </row>
     <row r="26">
@@ -1126,10 +1126,10 @@
         <v>29</v>
       </c>
       <c r="C26" t="n">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.137</v>
+        <v>-0.143</v>
       </c>
     </row>
     <row r="27">
@@ -1140,10 +1140,10 @@
         <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.167</v>
+        <v>-0.133</v>
       </c>
     </row>
     <row r="28">
@@ -1154,10 +1154,10 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.175</v>
+        <v>-0.179</v>
       </c>
     </row>
     <row r="29">
@@ -1168,10 +1168,10 @@
         <v>29</v>
       </c>
       <c r="C29" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.103</v>
+        <v>-0.109</v>
       </c>
     </row>
     <row r="30">
@@ -1182,10 +1182,10 @@
         <v>24</v>
       </c>
       <c r="C30" t="n">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.197</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="31">
@@ -1196,10 +1196,10 @@
         <v>26</v>
       </c>
       <c r="C31" t="n">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.192</v>
+        <v>-0.172</v>
       </c>
     </row>
     <row r="32">
@@ -1210,10 +1210,10 @@
         <v>22</v>
       </c>
       <c r="C32" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.154</v>
+        <v>-0.141</v>
       </c>
     </row>
     <row r="33">
@@ -1224,10 +1224,10 @@
         <v>29</v>
       </c>
       <c r="C33" t="n">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.123</v>
+        <v>-0.118</v>
       </c>
     </row>
     <row r="34">
@@ -1238,10 +1238,10 @@
         <v>26</v>
       </c>
       <c r="C34" t="n">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.13</v>
+        <v>-0.142</v>
       </c>
     </row>
     <row r="35">
@@ -1252,10 +1252,10 @@
         <v>22</v>
       </c>
       <c r="C35" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.101</v>
+        <v>-0.074</v>
       </c>
     </row>
     <row r="36">
@@ -1269,7 +1269,7 @@
         <v>226</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.055</v>
+        <v>-0.093</v>
       </c>
     </row>
     <row r="37">
@@ -1280,10 +1280,10 @@
         <v>24</v>
       </c>
       <c r="C37" t="n">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.13</v>
+        <v>-0.091</v>
       </c>
     </row>
     <row r="38">
@@ -1294,10 +1294,10 @@
         <v>22</v>
       </c>
       <c r="C38" t="n">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.052</v>
+        <v>-0.163</v>
       </c>
     </row>
     <row r="39">
@@ -1308,10 +1308,10 @@
         <v>29</v>
       </c>
       <c r="C39" t="n">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.149</v>
+        <v>-0.092</v>
       </c>
     </row>
     <row r="40">
@@ -1322,10 +1322,10 @@
         <v>26</v>
       </c>
       <c r="C40" t="n">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.09</v>
+        <v>-0.081</v>
       </c>
     </row>
   </sheetData>
@@ -1358,10 +1358,10 @@
         <v>66</v>
       </c>
       <c r="B2" t="n">
-        <v>0.366</v>
+        <v>0.355</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.162</v>
+        <v>-0.156</v>
       </c>
     </row>
     <row r="3">
@@ -1369,10 +1369,10 @@
         <v>67</v>
       </c>
       <c r="B3" t="n">
-        <v>0.049</v>
+        <v>0.043</v>
       </c>
       <c r="C3" t="n">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -1380,10 +1380,10 @@
         <v>68</v>
       </c>
       <c r="B4" t="n">
-        <v>0.367</v>
+        <v>0.364</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.164</v>
+        <v>-0.159</v>
       </c>
     </row>
     <row r="5">
@@ -1391,10 +1391,10 @@
         <v>69</v>
       </c>
       <c r="B5" t="n">
-        <v>0.289</v>
+        <v>0.271</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.241</v>
+        <v>-0.246</v>
       </c>
     </row>
     <row r="6">
@@ -1402,10 +1402,10 @@
         <v>70</v>
       </c>
       <c r="B6" t="n">
-        <v>0.425</v>
+        <v>0.411</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.052</v>
+        <v>-0.074</v>
       </c>
     </row>
   </sheetData>
